--- a/output/clean_data_pivot.xlsx
+++ b/output/clean_data_pivot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\analyst_proj\Group Project 1\project_1_eda_git_collaboration\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E370E7A8-7B78-4C3D-8687-0CA3F31A6A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62994057-0B45-4A7C-BBC3-10955A1B1935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{512D8888-D50F-4FA5-93EE-5287A37E58D4}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -180,12 +180,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:ln w="6350">
-                  <a:noFill/>
-                </a:ln>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -212,12 +212,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:ln w="6350">
-                <a:noFill/>
-              </a:ln>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -623,26 +623,25 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -664,11 +663,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln w="6350">
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -678,6 +677,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -692,26 +692,25 @@
       <c:pivotFmt>
         <c:idx val="27"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -733,11 +732,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln w="6350">
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -747,6 +746,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -761,26 +761,25 @@
       <c:pivotFmt>
         <c:idx val="28"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -802,11 +801,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln w="6350">
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -816,6 +815,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -830,30 +830,29 @@
       <c:pivotFmt>
         <c:idx val="29"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -875,11 +874,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln w="6350">
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -889,6 +888,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -903,30 +903,29 @@
       <c:pivotFmt>
         <c:idx val="30"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -948,11 +947,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln w="6350">
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -962,6 +961,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -976,30 +976,29 @@
       <c:pivotFmt>
         <c:idx val="31"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1021,11 +1020,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln w="6350">
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1035,6 +1034,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1049,17 +1049,17 @@
       <c:pivotFmt>
         <c:idx val="32"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
@@ -1067,14 +1067,13 @@
                 <a:lumOff val="20000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1096,11 +1095,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln w="6350">
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1110,6 +1109,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1124,17 +1124,17 @@
       <c:pivotFmt>
         <c:idx val="33"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
@@ -1142,14 +1142,13 @@
                 <a:lumOff val="20000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1171,11 +1170,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln w="6350">
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1185,6 +1184,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1199,17 +1199,17 @@
       <c:pivotFmt>
         <c:idx val="34"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6">
@@ -1217,14 +1217,13 @@
                 <a:lumOff val="20000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1246,11 +1245,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln w="6350">
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1260,6 +1259,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1274,30 +1274,29 @@
       <c:pivotFmt>
         <c:idx val="35"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
                 <a:lumMod val="80000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1319,11 +1318,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln w="6350">
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1333,6 +1332,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1347,30 +1347,29 @@
       <c:pivotFmt>
         <c:idx val="36"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
                 <a:lumMod val="80000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1392,11 +1391,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln w="6350">
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1406,6 +1405,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1420,30 +1420,29 @@
       <c:pivotFmt>
         <c:idx val="37"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6">
                 <a:lumMod val="80000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1465,11 +1464,11 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln w="6350">
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1479,6 +1478,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1514,13 +1514,14 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="2.7231914871894528E-2"/>
-          <c:y val="0.15778375665797906"/>
+          <c:y val="9.6384844770035547E-2"/>
           <c:w val="0.97276808512810542"/>
-          <c:h val="0.70905294897384175"/>
+          <c:h val="0.82521305394613997"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1537,30 +1538,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1577,11 +1563,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln w="6350">
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1591,6 +1577,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1603,13 +1590,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1646,7 +1634,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-217E-4E0C-BAB6-78ED357F7497}"/>
@@ -1668,30 +1655,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1708,11 +1680,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln w="6350">
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1722,6 +1694,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1734,13 +1707,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1777,7 +1751,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-217E-4E0C-BAB6-78ED357F7497}"/>
@@ -1799,30 +1772,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1839,11 +1797,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln w="6350">
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1853,6 +1811,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1865,13 +1824,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1908,7 +1868,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-217E-4E0C-BAB6-78ED357F7497}"/>
@@ -1930,36 +1889,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1976,11 +1916,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln w="6350">
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1990,6 +1930,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2002,13 +1943,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2045,7 +1987,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-217E-4E0C-BAB6-78ED357F7497}"/>
@@ -2067,36 +2008,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2113,11 +2035,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln w="6350">
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2127,6 +2049,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2139,13 +2062,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2182,7 +2106,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-217E-4E0C-BAB6-78ED357F7497}"/>
@@ -2204,36 +2127,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2250,11 +2154,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln w="6350">
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2264,6 +2168,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2276,13 +2181,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2319,7 +2225,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-217E-4E0C-BAB6-78ED357F7497}"/>
@@ -2341,39 +2246,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2390,11 +2274,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln w="6350">
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2404,6 +2288,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2416,13 +2301,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2459,7 +2345,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-217E-4E0C-BAB6-78ED357F7497}"/>
@@ -2481,39 +2366,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2530,11 +2394,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln w="6350">
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2544,6 +2408,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2556,13 +2421,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2599,7 +2465,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-217E-4E0C-BAB6-78ED357F7497}"/>
@@ -2621,39 +2486,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2670,11 +2514,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln w="6350">
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2684,6 +2528,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2696,13 +2541,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2739,7 +2585,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-217E-4E0C-BAB6-78ED357F7497}"/>
@@ -2761,36 +2606,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2807,11 +2633,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln w="6350">
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2821,6 +2647,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2833,13 +2660,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2876,7 +2704,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-217E-4E0C-BAB6-78ED357F7497}"/>
@@ -2898,36 +2725,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2944,11 +2752,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln w="6350">
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2958,6 +2766,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2970,13 +2779,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -3013,7 +2823,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-217E-4E0C-BAB6-78ED357F7497}"/>
@@ -3035,36 +2844,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3081,11 +2871,11 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln w="6350">
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3095,6 +2885,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3107,13 +2898,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -3150,7 +2942,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-217E-4E0C-BAB6-78ED357F7497}"/>
@@ -3158,7 +2949,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -3166,26 +2957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="2092664063"/>
         <c:axId val="2092686527"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="2092664063"/>
         <c:scaling>
@@ -3201,7 +2977,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -3215,12 +2991,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:ln w="6350">
-                  <a:noFill/>
-                </a:ln>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3241,11 +3017,25 @@
         <c:axId val="2092686527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="500"/>
+          <c:max val="450"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3262,12 +3052,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:ln w="6350">
-                  <a:noFill/>
-                </a:ln>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3282,19 +3072,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3307,10 +3085,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18793637245102335"/>
-          <c:y val="7.1113935992806881E-2"/>
-          <c:w val="0.62497917734099528"/>
-          <c:h val="6.7058948938628571E-2"/>
+          <c:x val="5.2856785572860714E-2"/>
+          <c:y val="0.11409345549184095"/>
+          <c:w val="0.40908292902822296"/>
+          <c:h val="5.5432702496960105E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3327,11 +3105,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:ln w="6350">
-                <a:noFill/>
-              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3355,11 +3133,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3369,18 +3147,11 @@
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr anchor="t" anchorCtr="0"/>
+    <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:ln w="6350">
-            <a:noFill/>
-          </a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3394,10 +3165,8 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -3447,25 +3216,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3473,30 +3242,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3505,15 +3251,38 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3547,60 +3316,36 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3612,34 +3357,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3655,19 +3396,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3682,13 +3425,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3701,15 +3444,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3721,16 +3463,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -3739,24 +3482,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -3765,16 +3515,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3783,16 +3534,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3801,16 +3553,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3819,42 +3572,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3862,22 +3600,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3885,17 +3612,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3904,12 +3631,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3918,13 +3645,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3933,7 +3661,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3953,9 +3681,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3966,20 +3694,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3988,16 +3722,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>265812</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166133</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>587005</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>199361</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>88605</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>332266</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>188284</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -45637,7 +45371,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4C3445E-543C-488B-860E-C4E33FAC43F3}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4C3445E-543C-488B-860E-C4E33FAC43F3}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
   <location ref="A3:N7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -47335,7 +47069,7 @@
   <dataFields count="1">
     <dataField name="Count of Release Month" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="26">
+  <chartFormats count="13">
     <chartFormat chart="3" format="26" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -47492,205 +47226,10 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="39">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="40">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="41">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="42">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="43">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="44">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="45">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="46">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="47">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="48">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="49">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="72"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="5" type="valueBetween" evalOrder="-1" id="14" iMeasureFld="0">
+    <filter fld="5" type="valueBetween" evalOrder="-1" id="18" iMeasureFld="0">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -48012,7 +47551,7 @@
   <dimension ref="A3:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
